--- a/Species_Func_Groups.xlsx
+++ b/Species_Func_Groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizmccleary/Desktop/Garibaldi_Analysis-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizmccleary/Desktop/Garibaldi_R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E2FA2-A8A8-A04B-BBB5-FD8BAE5CC7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5F4B0C-6C73-054F-B2E9-A3744FE7C3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14280" windowHeight="16600" xr2:uid="{804707B8-36A7-EA43-B718-A2C6947DCAEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="154">
   <si>
     <t>Site</t>
   </si>
@@ -470,9 +470,6 @@
     <t>DSHRUB</t>
   </si>
   <si>
-    <t>WILDFLOWER</t>
-  </si>
-  <si>
     <t>TREE</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>FORB</t>
+  </si>
+  <si>
+    <t>EVERGTREE</t>
   </si>
 </sst>
 </file>
@@ -551,11 +551,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,7 +894,7 @@
   <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -903,7 +904,7 @@
         <v>141</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -912,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1087,7 +1088,7 @@
         <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1110,7 +1111,7 @@
         <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1126,10 +1127,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="3"/>
+      <c r="A11" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1151,7 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -1168,7 +1171,7 @@
         <v>142</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -1188,7 +1191,7 @@
         <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -1208,7 +1211,7 @@
         <v>140</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -1228,7 +1231,7 @@
         <v>143</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -1248,7 +1251,7 @@
         <v>140</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -1271,7 +1274,7 @@
         <v>140</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -1290,10 +1293,12 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
@@ -1308,10 +1313,12 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C20" t="s">
         <v>4</v>
       </c>
@@ -1330,7 +1337,7 @@
         <v>140</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -1346,10 +1353,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
@@ -1364,10 +1373,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
@@ -1382,10 +1393,12 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C24" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1417,7 @@
         <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -1585,7 +1598,7 @@
         <v>140</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C33" t="s">
         <v>63</v>
@@ -1604,10 +1617,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="3"/>
+      <c r="A34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C34" t="s">
         <v>63</v>
       </c>
@@ -1626,7 +1641,7 @@
         <v>142</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C35" t="s">
         <v>63</v>
@@ -1646,7 +1661,7 @@
         <v>140</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C36" t="s">
         <v>63</v>
@@ -1666,7 +1681,7 @@
         <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C37" t="s">
         <v>63</v>
@@ -1689,7 +1704,7 @@
         <v>140</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -1709,7 +1724,7 @@
         <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C39" t="s">
         <v>63</v>
@@ -1729,7 +1744,7 @@
         <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C40" t="s">
         <v>63</v>
@@ -1749,7 +1764,7 @@
         <v>140</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
         <v>63</v>
@@ -1769,7 +1784,7 @@
         <v>143</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
@@ -1789,7 +1804,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -1809,7 +1824,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
         <v>63</v>
@@ -1847,7 +1862,7 @@
         <v>142</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
         <v>63</v>
@@ -1885,7 +1900,7 @@
         <v>142</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -1901,10 +1916,12 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="3"/>
+      <c r="A49" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C49" t="s">
         <v>63</v>
       </c>
@@ -1919,10 +1936,12 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="3"/>
+      <c r="A50" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C50" t="s">
         <v>63</v>
       </c>
@@ -1941,7 +1960,7 @@
         <v>140</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C51" t="s">
         <v>63</v>
@@ -1961,7 +1980,7 @@
         <v>140</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
         <v>63</v>
@@ -1977,10 +1996,12 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="3"/>
+      <c r="A53" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C53" t="s">
         <v>63</v>
       </c>
@@ -1999,7 +2020,7 @@
         <v>143</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C54" t="s">
         <v>63</v>
@@ -2015,10 +2036,12 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="3"/>
+      <c r="A55" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C55" t="s">
         <v>63</v>
       </c>
@@ -2037,7 +2060,7 @@
         <v>140</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2056,10 +2079,12 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="3"/>
+      <c r="A57" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C57" t="s">
         <v>63</v>
       </c>
@@ -2077,10 +2102,12 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B58" s="3"/>
+      <c r="A58" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>153</v>
+      </c>
       <c r="C58" t="s">
         <v>63</v>
       </c>
@@ -2260,7 +2287,7 @@
         <v>140</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C66" t="s">
         <v>95</v>
@@ -2301,7 +2328,7 @@
         <v>142</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C68" t="s">
         <v>95</v>
@@ -2321,7 +2348,7 @@
         <v>142</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
         <v>95</v>
@@ -2341,7 +2368,7 @@
         <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C70" t="s">
         <v>95</v>
@@ -2357,10 +2384,12 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="3"/>
+      <c r="A71" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C71" t="s">
         <v>95</v>
       </c>
@@ -2375,10 +2404,12 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="3"/>
+      <c r="A72" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C72" t="s">
         <v>95</v>
       </c>
@@ -2393,10 +2424,12 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="3"/>
+      <c r="A73" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C73" t="s">
         <v>95</v>
       </c>
@@ -2451,7 +2484,7 @@
         <v>140</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C76" t="s">
         <v>95</v>
@@ -2471,7 +2504,7 @@
         <v>140</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
         <v>95</v>
@@ -2487,10 +2520,12 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B78" s="3"/>
+      <c r="A78" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C78" t="s">
         <v>95</v>
       </c>
@@ -2509,7 +2544,7 @@
         <v>143</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" t="s">
         <v>95</v>
@@ -2526,9 +2561,11 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B80" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C80" t="s">
         <v>95</v>
       </c>
@@ -2544,9 +2581,11 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>153</v>
+      </c>
       <c r="C81" t="s">
         <v>95</v>
       </c>
@@ -2565,7 +2604,7 @@
         <v>143</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" t="s">
         <v>95</v>
@@ -2585,7 +2624,7 @@
         <v>143</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" t="s">
         <v>95</v>
@@ -2605,7 +2644,7 @@
         <v>143</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" t="s">
         <v>95</v>
@@ -2625,7 +2664,7 @@
         <v>140</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" t="s">
         <v>95</v>
@@ -2663,7 +2702,7 @@
         <v>143</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" t="s">
         <v>95</v>
@@ -2701,7 +2740,7 @@
         <v>140</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
         <v>95</v>
@@ -2721,7 +2760,7 @@
         <v>140</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
         <v>95</v>
@@ -2741,7 +2780,7 @@
         <v>140</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" t="s">
         <v>95</v>
@@ -2757,10 +2796,12 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="3"/>
+      <c r="A92" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C92" t="s">
         <v>95</v>
       </c>
@@ -2775,10 +2816,12 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B93" s="3"/>
+      <c r="A93" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C93" t="s">
         <v>95</v>
       </c>
@@ -2796,10 +2839,12 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B94" s="3"/>
+      <c r="A94" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C94" t="s">
         <v>95</v>
       </c>
@@ -2814,10 +2859,12 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B95" s="3"/>
+      <c r="A95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C95" t="s">
         <v>95</v>
       </c>
@@ -2832,10 +2879,12 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B96" s="3"/>
+      <c r="A96" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C96" t="s">
         <v>95</v>
       </c>
@@ -2850,10 +2899,12 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B97" s="3"/>
+      <c r="A97" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>142</v>
+      </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2923,7 @@
         <v>143</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
@@ -2892,7 +2943,7 @@
         <v>140</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
